--- a/statistics/HistoricalDistanceData/historical_distance/Q16962694-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q16962694-en.xlsx
@@ -31,33 +31,33 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Man accused of 2009 Lin family murders, Robert Xie, granted bail in NSW Supreme Court</t>
+  </si>
+  <si>
+    <t>Police video captured Robert Xie destroying evidence in Lin family case</t>
+  </si>
+  <si>
     <t>Robert Xie murder trial: the evidence that helped catch a killer</t>
   </si>
   <si>
     <t>A motive in Lin murders revealed: Robert Xie's niece Brenda Lin breaks her silence</t>
   </si>
   <si>
-    <t>Police video captured Robert Xie destroying evidence in Lin family case</t>
-  </si>
-  <si>
-    <t>Man accused of 2009 Lin family murders, Robert Xie, granted bail in NSW Supreme Court</t>
-  </si>
-  <si>
     <t>Epping murder</t>
   </si>
   <si>
+    <t>2015-12-08T05:29:25UTC</t>
+  </si>
+  <si>
+    <t>2017-01-16T18:14:58UTC</t>
+  </si>
+  <si>
     <t>2017-01-16T05:25:20UTC</t>
   </si>
   <si>
     <t>2017-02-16T14:06:37UTC</t>
   </si>
   <si>
-    <t>2017-01-16T18:14:58UTC</t>
-  </si>
-  <si>
-    <t>2015-12-08T05:29:25UTC</t>
-  </si>
-  <si>
     <t>2009-07-19T00:00:00UTC</t>
   </si>
   <si>
@@ -67,16 +67,16 @@
     <t>day_1</t>
   </si>
   <si>
+    <t>http://www.smh.com.au/nsw/man-accused-of-2009-lin-family-murders-robert-xie-granted-bail-in-nsw-supreme-court-20151208-gli4d7.html</t>
+  </si>
+  <si>
+    <t>http://www.smh.com.au/nsw/police-video-captured-robert-xie-destroying-evidence-in-lin-family-case-20170116-gtsfx0</t>
+  </si>
+  <si>
     <t>http://www.abc.net.au/news/2017-01-16/robert-xie-trial-blood-stains-helped-convict-murderer/8184856</t>
   </si>
   <si>
     <t>http://www.smh.com.au/nsw/motive-in-lin-murders-revealed:-robert-xie's-niece-brenda-lin-breaks-her-silence-20170216-gue88t.html</t>
-  </si>
-  <si>
-    <t>http://www.smh.com.au/nsw/police-video-captured-robert-xie-destroying-evidence-in-lin-family-case-20170116-gtsfx0</t>
-  </si>
-  <si>
-    <t>http://www.smh.com.au/nsw/man-accused-of-2009-lin-family-murders-robert-xie-granted-bail-in-nsw-supreme-court-20151208-gli4d7.html</t>
   </si>
   <si>
     <t>http://www.smh.com.au/national/grisly-killings-that-shocked-even-the-detectives-20090719-dpku.html</t>
@@ -481,7 +481,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>2739</v>
+        <v>2334</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -498,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>2770</v>
+        <v>2739</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -532,7 +532,7 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>2334</v>
+        <v>2770</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
